--- a/config/Datas/test/table_one.xlsx
+++ b/config/Datas/test/table_one.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\config\Datas\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AshFrame\luban\config\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0E9401-383E-46B9-B028-03F027E4D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEF34B8-0CC1-45FD-A66B-726F9748FA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11625" yWindow="8640" windowWidth="20190" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_role_csv" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>##</t>
-  </si>
-  <si>
-    <t>row:true</t>
   </si>
   <si>
     <t>是否导出</t>
@@ -80,6 +77,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -387,7 +385,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,61 +404,58 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
